--- a/spliced/falling/2023-03-25_18-03-28/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-28/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.08320332318544384</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.003773307800292898</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.2548617899417878</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.1365976125001907</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-28/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-28/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4378628730773919</v>
+        <v>-0.1574550628662107</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1533573150634768</v>
+        <v>0.1197370529174804</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.335271286964417</v>
+        <v>-0.3381910085678101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2312893986701963</v>
+        <v>-0.3228707909584047</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.572000253200532</v>
+        <v>0.1800707578659058</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.991752985119822</v>
+        <v>-0.2396511320024727</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.05911626815795876</v>
+        <v>-0.3687732219696044</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.518646645545961</v>
+        <v>0.22406005859375</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.819378316402437</v>
+        <v>-0.1331830434501169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.867481225728992</v>
+        <v>-0.3819821834564209</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.808535265922549</v>
+        <v>0.1978947639465331</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.745611393451694</v>
+        <v>-0.2025355234742165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.066653013229371</v>
+        <v>-0.3319910526275633</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.002454280853272</v>
+        <v>0.2015152931213379</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.322827577590942</v>
+        <v>-0.2596112400293351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.651154989004131</v>
+        <v>-0.3998157501220704</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.045457839965813</v>
+        <v>0.1588554024696349</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.523038685321813</v>
+        <v>-0.4224489629268647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.538045167922988</v>
+        <v>-0.4262521266937255</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1250472068786557</v>
+        <v>-0.03637795448303255</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.249881243705746</v>
+        <v>-0.570676848292351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21.8330995559694</v>
+        <v>-0.5638278126716616</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.8298350632190838</v>
+        <v>-0.07290470600128157</v>
       </c>
       <c r="C9" t="n">
-        <v>8.03648120164879</v>
+        <v>-1.039905160665513</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36.38044357299789</v>
+        <v>-0.4378628730773919</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.828326940536493</v>
+        <v>-0.1533573150634768</v>
       </c>
       <c r="C10" t="n">
-        <v>15.55662982463829</v>
+        <v>-1.335271286964417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2419787645339966</v>
+        <v>-0.2312893986701963</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.207208663225174</v>
+        <v>-0.572000253200532</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5454361662268639</v>
+        <v>-1.991752985119822</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3278889179229798</v>
+        <v>-0.05911626815795876</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6977443240582908</v>
+        <v>-1.518646645545961</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3904904812574392</v>
+        <v>-2.819378316402437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6186044454574491</v>
+        <v>-0.867481225728992</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1085777457803506</v>
+        <v>-2.808535265922549</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6750323086977017</v>
+        <v>-3.745611393451694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.584584712982176</v>
+        <v>-2.066653013229371</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.268941026926038</v>
+        <v>-4.002454280853272</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4205022692680305</v>
+        <v>-4.322827577590942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.204359865188596</v>
+        <v>-1.651154989004131</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3030472241342062</v>
+        <v>-3.045457839965813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2759267613291676</v>
+        <v>-5.523038685321813</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6684749126434326</v>
+        <v>-3.538045167922988</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3942791000008581</v>
+        <v>-0.1250472068786557</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.052078396081925</v>
+        <v>-6.249881243705746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5069202423095689</v>
+        <v>21.8330995559694</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8594004645943611</v>
+        <v>-0.8298350632190838</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3887748748064006</v>
+        <v>8.03648120164879</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1816680908203125</v>
+        <v>36.38044357299789</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3003633975982678</v>
+        <v>-2.828326940536493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3908397436141963</v>
+        <v>15.55662982463829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2214233398437506</v>
+        <v>-0.2419787645339966</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5106331750750528</v>
+        <v>-1.207208663225174</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1910619698464848</v>
+        <v>-0.5454361662268639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3159080505371084</v>
+        <v>0.3278889179229798</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2065896064043048</v>
+        <v>-0.6977443240582908</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2784154430031768</v>
+        <v>-0.3904904812574392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.6186044454574491</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.1085777457803506</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.6750323086977017</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.584584712982176</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.268941026926038</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4205022692680305</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.204359865188596</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3030472241342062</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2759267613291676</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.6684749126434326</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3942791000008581</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.052078396081925</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.5069202423095689</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8594004645943611</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3887748748064006</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1816680908203125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3003633975982678</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3908397436141963</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2214233398437506</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5106331750750528</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1910619698464848</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.3159080505371084</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2065896064043048</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2784154430031768</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>-0.06431400775909421</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>0.2912909723818302</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>-0.08320332318544384</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.003773307800292898</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2548617899417878</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.1365976125001907</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.01674773693084754</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2881045341491697</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1470022119581697</v>
       </c>
     </row>
   </sheetData>
